--- a/Code/Results/Cases/Case_5_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.062554487182467</v>
+        <v>4.576389969012894</v>
       </c>
       <c r="C2">
-        <v>0.7794522374263124</v>
+        <v>0.3342714604671073</v>
       </c>
       <c r="D2">
-        <v>0.01511227129687143</v>
+        <v>0.006836383813787705</v>
       </c>
       <c r="E2">
-        <v>0.01671612379233761</v>
+        <v>0.05039595700296362</v>
       </c>
       <c r="F2">
-        <v>3.301852094397589</v>
+        <v>4.735664047197929</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05563675632323495</v>
+        <v>0.1416895320636762</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.321046648578573</v>
+        <v>0.4414515150750873</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.498826836852658</v>
+        <v>2.757242386420714</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.456012385283771</v>
+        <v>4.455837958333063</v>
       </c>
       <c r="C3">
-        <v>0.6710576215099024</v>
+        <v>0.3080797494908154</v>
       </c>
       <c r="D3">
-        <v>0.01280541352550557</v>
+        <v>0.006087666367751154</v>
       </c>
       <c r="E3">
-        <v>0.01667994008964868</v>
+        <v>0.05047652714795842</v>
       </c>
       <c r="F3">
-        <v>3.071331026658754</v>
+        <v>4.707275549390317</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05648722300144726</v>
+        <v>0.1424044873738985</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2886822728086855</v>
+        <v>0.4365187045588641</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.542783323283544</v>
+        <v>2.774832669723565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.092764960146383</v>
+        <v>4.384589064129784</v>
       </c>
       <c r="C4">
-        <v>0.605860109561263</v>
+        <v>0.2922051183744259</v>
       </c>
       <c r="D4">
-        <v>0.01146299882712398</v>
+        <v>0.005626340931364382</v>
       </c>
       <c r="E4">
-        <v>0.01666505588960421</v>
+        <v>0.05053027515289243</v>
       </c>
       <c r="F4">
-        <v>2.937044781441969</v>
+        <v>4.692248519446323</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05706559748522899</v>
+        <v>0.142877273063819</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2693688971541093</v>
+        <v>0.4337185642581147</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.571970217218677</v>
+        <v>2.786423068807963</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.946770637280736</v>
+        <v>4.356248667022896</v>
       </c>
       <c r="C5">
-        <v>0.5795831755074232</v>
+        <v>0.2857874830918377</v>
       </c>
       <c r="D5">
-        <v>0.01093184368668076</v>
+        <v>0.005437879224803766</v>
       </c>
       <c r="E5">
-        <v>0.01666070026677724</v>
+        <v>0.05055325506179437</v>
       </c>
       <c r="F5">
-        <v>2.883974611734089</v>
+        <v>4.686727119348774</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0573149546087528</v>
+        <v>0.1430784426895304</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2616244353665849</v>
+        <v>0.4326349052862213</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.584386134427412</v>
+        <v>2.791344288055612</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.92264358647617</v>
+        <v>4.351584614418471</v>
       </c>
       <c r="C6">
-        <v>0.575236159574672</v>
+        <v>0.284724924407243</v>
       </c>
       <c r="D6">
-        <v>0.01084453141905328</v>
+        <v>0.005406555212072561</v>
       </c>
       <c r="E6">
-        <v>0.01666007669070219</v>
+        <v>0.05055713596217926</v>
       </c>
       <c r="F6">
-        <v>2.875257449711569</v>
+        <v>4.685846605860064</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05735717275390506</v>
+        <v>0.1431123606591438</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2603456780984459</v>
+        <v>0.4324584307092039</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.586478480126701</v>
+        <v>2.792173396664928</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.090788146066814</v>
+        <v>4.384204048535707</v>
       </c>
       <c r="C7">
-        <v>0.6055046112189473</v>
+        <v>0.2921183606677005</v>
       </c>
       <c r="D7">
-        <v>0.0114557745310222</v>
+        <v>0.005623801248386684</v>
       </c>
       <c r="E7">
-        <v>0.01666499038990749</v>
+        <v>0.05053058070441441</v>
       </c>
       <c r="F7">
-        <v>2.936322582447133</v>
+        <v>4.692171620306425</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0570689056550755</v>
+        <v>0.142879951659916</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2692639611031638</v>
+        <v>0.4337037172446827</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.572135587163032</v>
+        <v>2.786488637009114</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.85134133454028</v>
+        <v>4.534246999201969</v>
       </c>
       <c r="C8">
-        <v>0.7417645620676296</v>
+        <v>0.3251971288773063</v>
       </c>
       <c r="D8">
-        <v>0.01429977495122969</v>
+        <v>0.006578521943524152</v>
       </c>
       <c r="E8">
-        <v>0.01670203936634435</v>
+        <v>0.05042285066560309</v>
       </c>
       <c r="F8">
-        <v>3.220754035235359</v>
+        <v>4.72537548266817</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0559180434965576</v>
+        <v>0.1419290371534707</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3097622906805668</v>
+        <v>0.4397031855138493</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.513507607781122</v>
+        <v>2.763143219144894</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.429550177981923</v>
+        <v>4.850603414006684</v>
       </c>
       <c r="C9">
-        <v>1.022280529031207</v>
+        <v>0.3917435685592068</v>
       </c>
       <c r="D9">
-        <v>0.02060442713463573</v>
+        <v>0.008440870247973464</v>
       </c>
       <c r="E9">
-        <v>0.01683999909466249</v>
+        <v>0.0502454699341871</v>
       </c>
       <c r="F9">
-        <v>3.844823856614767</v>
+        <v>4.80966801259396</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05413040491858645</v>
+        <v>0.1403322143127514</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3943517873170777</v>
+        <v>0.4532866387676222</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.417526557192545</v>
+        <v>2.723656710721002</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.66437275309562</v>
+        <v>5.096745335844275</v>
       </c>
       <c r="C10">
-        <v>1.240577877193516</v>
+        <v>0.4417131830359722</v>
       </c>
       <c r="D10">
-        <v>0.02590867234395944</v>
+        <v>0.009807277632454259</v>
       </c>
       <c r="E10">
-        <v>0.01699316224021563</v>
+        <v>0.05013572106776887</v>
       </c>
       <c r="F10">
-        <v>4.357733417425834</v>
+        <v>4.883454828677458</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05314022982235755</v>
+        <v>0.1393219986147578</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4608393657582894</v>
+        <v>0.4643832081064403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.36107177854845</v>
+        <v>2.698519053072573</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.24846600883177</v>
+        <v>5.211752386229477</v>
       </c>
       <c r="C11">
-        <v>1.343634632130374</v>
+        <v>0.4646919755899148</v>
       </c>
       <c r="D11">
-        <v>0.0285303972000932</v>
+        <v>0.01042939837254409</v>
       </c>
       <c r="E11">
-        <v>0.01707751479787467</v>
+        <v>0.05009024535380668</v>
       </c>
       <c r="F11">
-        <v>4.606622125580827</v>
+        <v>4.919634178634254</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0527698316856835</v>
+        <v>0.1388977419359989</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4923449592616151</v>
+        <v>0.4696758015430191</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.339112147415165</v>
+        <v>2.687932273078744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.473458897251703</v>
+        <v>5.255742883157154</v>
       </c>
       <c r="C12">
-        <v>1.383308961028831</v>
+        <v>0.4734299227247902</v>
       </c>
       <c r="D12">
-        <v>0.02955960791942402</v>
+        <v>0.01066512940528952</v>
       </c>
       <c r="E12">
-        <v>0.0171119290853976</v>
+        <v>0.0500736636344089</v>
       </c>
       <c r="F12">
-        <v>4.703480921905538</v>
+        <v>4.933713011208795</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05264206531205318</v>
+        <v>0.1387421577390313</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5044879225918919</v>
+        <v>0.4717152914156912</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.331399373493255</v>
+        <v>2.684046041560904</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.424822732071561</v>
+        <v>5.246249128182285</v>
       </c>
       <c r="C13">
-        <v>1.374733580159557</v>
+        <v>0.4715464185729843</v>
       </c>
       <c r="D13">
-        <v>0.02933621466980441</v>
+        <v>0.01061435282271361</v>
       </c>
       <c r="E13">
-        <v>0.01710440084735521</v>
+        <v>0.05007720640071867</v>
       </c>
       <c r="F13">
-        <v>4.682497979969526</v>
+        <v>4.930664005281756</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05266900896443616</v>
+        <v>0.138775440016996</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.501862715174525</v>
+        <v>0.4712744789961789</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.333032444606189</v>
+        <v>2.68487753961621</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.266896217439239</v>
+        <v>5.215362677103144</v>
       </c>
       <c r="C14">
-        <v>1.346884964228764</v>
+        <v>0.4654101180308885</v>
       </c>
       <c r="D14">
-        <v>0.02861430024912437</v>
+        <v>0.01044878874493804</v>
       </c>
       <c r="E14">
-        <v>0.01708029420385826</v>
+        <v>0.05008886836531257</v>
       </c>
       <c r="F14">
-        <v>4.614536098424452</v>
+        <v>4.920784851331206</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05275906363753791</v>
+        <v>0.1388848402836693</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4933395124562452</v>
+        <v>0.4698428834907844</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.338465102410268</v>
+        <v>2.687610086029792</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.170677023431494</v>
+        <v>5.196501210637052</v>
       </c>
       <c r="C15">
-        <v>1.329914957699771</v>
+        <v>0.4616562183532551</v>
       </c>
       <c r="D15">
-        <v>0.02817705950792515</v>
+        <v>0.01034739727194989</v>
       </c>
       <c r="E15">
-        <v>0.01706586209406347</v>
+        <v>0.05009609483972444</v>
       </c>
       <c r="F15">
-        <v>4.57325946777064</v>
+        <v>4.914782957005826</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0528158839058257</v>
+        <v>0.1389525116279238</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.488147490277143</v>
+        <v>0.4689705903443411</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.341873473746233</v>
+        <v>2.689299857872143</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.62669952492854</v>
+        <v>5.089290721180021</v>
       </c>
       <c r="C16">
-        <v>1.233927327938602</v>
+        <v>0.4402165110675469</v>
       </c>
       <c r="D16">
-        <v>0.02574205902472215</v>
+        <v>0.009766637349443386</v>
       </c>
       <c r="E16">
-        <v>0.01698797417172621</v>
+        <v>0.05013878247102599</v>
       </c>
       <c r="F16">
-        <v>4.341811589947469</v>
+        <v>4.881143240022993</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05316612762512918</v>
+        <v>0.1393504347729149</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4588083193505383</v>
+        <v>0.4640422581819337</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.362587319563687</v>
+        <v>2.6992280606501</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.299108651813242</v>
+        <v>5.024300410456817</v>
       </c>
       <c r="C17">
-        <v>1.176075428021761</v>
+        <v>0.4271278696604099</v>
       </c>
       <c r="D17">
-        <v>0.02430594658734009</v>
+        <v>0.009410546862596902</v>
       </c>
       <c r="E17">
-        <v>0.01694418639922751</v>
+        <v>0.05016610893299311</v>
       </c>
       <c r="F17">
-        <v>4.20405850734511</v>
+        <v>4.861177609923999</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05340214536512278</v>
+        <v>0.1396035856467783</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4411531673260498</v>
+        <v>0.4610816387911996</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.376292616214585</v>
+        <v>2.705536529286348</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.112751676528717</v>
+        <v>4.987205250342242</v>
       </c>
       <c r="C18">
-        <v>1.143146210741406</v>
+        <v>0.4196228631921031</v>
       </c>
       <c r="D18">
-        <v>0.02349914231431782</v>
+        <v>0.009205779138426351</v>
       </c>
       <c r="E18">
-        <v>0.01692035689502208</v>
+        <v>0.05018224525715109</v>
       </c>
       <c r="F18">
-        <v>4.126266028530864</v>
+        <v>4.849939724228847</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05354536280653477</v>
+        <v>0.1397525136695226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4311148552568511</v>
+        <v>0.4594017949646059</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.384521222102109</v>
+        <v>2.709244810053463</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.049992438345953</v>
+        <v>4.97469441148894</v>
       </c>
       <c r="C19">
-        <v>1.132053262980492</v>
+        <v>0.4170857630961109</v>
       </c>
       <c r="D19">
-        <v>0.02322909471053336</v>
+        <v>0.009136454092214308</v>
       </c>
       <c r="E19">
-        <v>0.01691251170025038</v>
+        <v>0.05018778070869473</v>
       </c>
       <c r="F19">
-        <v>4.100163671041486</v>
+        <v>4.846176907089671</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05359510848903071</v>
+        <v>0.1398035088440253</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4277351835700642</v>
+        <v>0.4588369801840173</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.387364772848414</v>
+        <v>2.710514056279024</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.333763580079562</v>
+        <v>5.031189163502233</v>
       </c>
       <c r="C20">
-        <v>1.182197350560955</v>
+        <v>0.4285187674723829</v>
       </c>
       <c r="D20">
-        <v>0.0244567923536394</v>
+        <v>0.009448448024095057</v>
       </c>
       <c r="E20">
-        <v>0.01694870495108702</v>
+        <v>0.05016315664026538</v>
       </c>
       <c r="F20">
-        <v>4.218571074006718</v>
+        <v>4.863277524870512</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05337624148057429</v>
+        <v>0.1395762934765941</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4430203237932488</v>
+        <v>0.4613944178771732</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.374797432249409</v>
+        <v>2.704856715986622</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.313174464339681</v>
+        <v>5.224422813265733</v>
       </c>
       <c r="C21">
-        <v>1.355046201222876</v>
+        <v>0.4672115044745624</v>
       </c>
       <c r="D21">
-        <v>0.02882529877060591</v>
+        <v>0.01049741436138873</v>
       </c>
       <c r="E21">
-        <v>0.01708730456930829</v>
+        <v>0.05008542562964868</v>
       </c>
       <c r="F21">
-        <v>4.634424045002305</v>
+        <v>4.923676304184539</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05273226464039027</v>
+        <v>0.1388525691257989</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.495836942495032</v>
+        <v>0.4702624188602869</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.336852441715308</v>
+        <v>2.686804133453364</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.975829952468757</v>
+        <v>5.353277385893648</v>
       </c>
       <c r="C22">
-        <v>1.471860479323766</v>
+        <v>0.4927118644707775</v>
       </c>
       <c r="D22">
-        <v>0.03189652342633309</v>
+        <v>0.01118386706631469</v>
       </c>
       <c r="E22">
-        <v>0.01719252114472258</v>
+        <v>0.05003834782904892</v>
       </c>
       <c r="F22">
-        <v>4.921640736340976</v>
+        <v>4.965357868210276</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05238479775103499</v>
+        <v>0.1384091392829987</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5316125370309095</v>
+        <v>0.4762639787543179</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.315607244856466</v>
+        <v>2.675721575942546</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.619872136604386</v>
+        <v>5.284269452310582</v>
       </c>
       <c r="C23">
-        <v>1.409121283925572</v>
+        <v>0.4790821352789862</v>
       </c>
       <c r="D23">
-        <v>0.03023514202501332</v>
+        <v>0.01081738915385699</v>
       </c>
       <c r="E23">
-        <v>0.01713488597987456</v>
+        <v>0.0500631336759344</v>
       </c>
       <c r="F23">
-        <v>4.766796110828523</v>
+        <v>4.942908742006523</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05256316216976842</v>
+        <v>0.13864310173037</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5123917073413082</v>
+        <v>0.473041963680032</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.326595554587541</v>
+        <v>2.681570796080734</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.318089965194531</v>
+        <v>5.028073921757198</v>
       </c>
       <c r="C24">
-        <v>1.179428607611783</v>
+        <v>0.4278898808726694</v>
       </c>
       <c r="D24">
-        <v>0.02438853677988817</v>
+        <v>0.009431313059273805</v>
       </c>
       <c r="E24">
-        <v>0.01694665795141226</v>
+        <v>0.05016449004497581</v>
       </c>
       <c r="F24">
-        <v>4.212005598013292</v>
+        <v>4.862327404045857</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05338792925208224</v>
+        <v>0.1395886217128464</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.442175836197805</v>
+        <v>0.4612529411394206</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.375472322067523</v>
+        <v>2.705163805911752</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.991181913785113</v>
+        <v>4.762628969091793</v>
       </c>
       <c r="C25">
-        <v>0.9445806589380652</v>
+        <v>0.3735556747814996</v>
       </c>
       <c r="D25">
-        <v>0.01879945149103079</v>
+        <v>0.007937684988892357</v>
       </c>
       <c r="E25">
-        <v>0.01679457731529488</v>
+        <v>0.05028983783157026</v>
       </c>
       <c r="F25">
-        <v>3.667568923372272</v>
+        <v>4.78479449909409</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05456023769765217</v>
+        <v>0.1407355528815408</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3708014387167964</v>
+        <v>0.4494164429837326</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.441223570156353</v>
+        <v>2.733661364364735</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.576389969012894</v>
+        <v>5.062554487182467</v>
       </c>
       <c r="C2">
-        <v>0.3342714604671073</v>
+        <v>0.779452237426284</v>
       </c>
       <c r="D2">
-        <v>0.006836383813787705</v>
+        <v>0.01511227129675774</v>
       </c>
       <c r="E2">
-        <v>0.05039595700296362</v>
+        <v>0.01671612379234044</v>
       </c>
       <c r="F2">
-        <v>4.735664047197929</v>
+        <v>3.301852094397617</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1416895320636762</v>
+        <v>0.05563675632312837</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4414515150750873</v>
+        <v>0.3210466485785162</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.757242386420714</v>
+        <v>1.498826836852601</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.455837958333063</v>
+        <v>4.456012385283714</v>
       </c>
       <c r="C3">
-        <v>0.3080797494908154</v>
+        <v>0.6710576215096751</v>
       </c>
       <c r="D3">
-        <v>0.006087666367751154</v>
+        <v>0.01280541352535636</v>
       </c>
       <c r="E3">
-        <v>0.05047652714795842</v>
+        <v>0.01667994008963963</v>
       </c>
       <c r="F3">
-        <v>4.707275549390317</v>
+        <v>3.071331026658768</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1424044873738985</v>
+        <v>0.05648722300140108</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4365187045588641</v>
+        <v>0.288682272808586</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.774832669723565</v>
+        <v>1.542783323283558</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.384589064129784</v>
+        <v>4.092764960146496</v>
       </c>
       <c r="C4">
-        <v>0.2922051183744259</v>
+        <v>0.6058601095614904</v>
       </c>
       <c r="D4">
-        <v>0.005626340931364382</v>
+        <v>0.01146299882747215</v>
       </c>
       <c r="E4">
-        <v>0.05053027515289243</v>
+        <v>0.01666505588957323</v>
       </c>
       <c r="F4">
-        <v>4.692248519446323</v>
+        <v>2.937044781441941</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.142877273063819</v>
+        <v>0.05706559748522366</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4337185642581147</v>
+        <v>0.2693688971541519</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.786423068807963</v>
+        <v>1.571970217218791</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.356248667022896</v>
+        <v>3.946770637280736</v>
       </c>
       <c r="C5">
-        <v>0.2857874830918377</v>
+        <v>0.5795831755076222</v>
       </c>
       <c r="D5">
-        <v>0.005437879224803766</v>
+        <v>0.01093184368666655</v>
       </c>
       <c r="E5">
-        <v>0.05055325506179437</v>
+        <v>0.01666070026683014</v>
       </c>
       <c r="F5">
-        <v>4.686727119348774</v>
+        <v>2.883974611734089</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1430784426895304</v>
+        <v>0.05731495460860891</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4326349052862213</v>
+        <v>0.2616244353666559</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.791344288055612</v>
+        <v>1.58438613442739</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.351584614418471</v>
+        <v>3.92264358647634</v>
       </c>
       <c r="C6">
-        <v>0.284724924407243</v>
+        <v>0.5752361595748994</v>
       </c>
       <c r="D6">
-        <v>0.005406555212072561</v>
+        <v>0.01084453141904973</v>
       </c>
       <c r="E6">
-        <v>0.05055713596217926</v>
+        <v>0.01666007669067332</v>
       </c>
       <c r="F6">
-        <v>4.685846605860064</v>
+        <v>2.875257449711583</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1431123606591438</v>
+        <v>0.0573571727539175</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4324584307092039</v>
+        <v>0.2603456780984601</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.792173396664928</v>
+        <v>1.586478480126736</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.384204048535707</v>
+        <v>4.090788146066643</v>
       </c>
       <c r="C7">
-        <v>0.2921183606677005</v>
+        <v>0.6055046112190325</v>
       </c>
       <c r="D7">
-        <v>0.005623801248386684</v>
+        <v>0.0114557745308943</v>
       </c>
       <c r="E7">
-        <v>0.05053058070441441</v>
+        <v>0.01666499038993291</v>
       </c>
       <c r="F7">
-        <v>4.692171620306425</v>
+        <v>2.936322582447104</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.142879951659916</v>
+        <v>0.05706890565494049</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4337037172446827</v>
+        <v>0.2692639611032632</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.786488637009114</v>
+        <v>1.572135587163018</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.534246999201969</v>
+        <v>4.851341334540109</v>
       </c>
       <c r="C8">
-        <v>0.3251971288773063</v>
+        <v>0.7417645620674591</v>
       </c>
       <c r="D8">
-        <v>0.006578521943524152</v>
+        <v>0.01429977495124035</v>
       </c>
       <c r="E8">
-        <v>0.05042285066560309</v>
+        <v>0.01670203936631781</v>
       </c>
       <c r="F8">
-        <v>4.72537548266817</v>
+        <v>3.220754035235416</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1419290371534707</v>
+        <v>0.05591804349663754</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4397031855138493</v>
+        <v>0.30976229068051</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.763143219144894</v>
+        <v>1.51350760778125</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.850603414006684</v>
+        <v>6.42955017798181</v>
       </c>
       <c r="C9">
-        <v>0.3917435685592068</v>
+        <v>1.022280529030695</v>
       </c>
       <c r="D9">
-        <v>0.008440870247973464</v>
+        <v>0.02060442713449717</v>
       </c>
       <c r="E9">
-        <v>0.0502454699341871</v>
+        <v>0.01683999909469197</v>
       </c>
       <c r="F9">
-        <v>4.80966801259396</v>
+        <v>3.844823856614767</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1403322143127514</v>
+        <v>0.0541304049185225</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4532866387676222</v>
+        <v>0.394351787316964</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.723656710721002</v>
+        <v>1.417526557192502</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.096745335844275</v>
+        <v>7.66437275309562</v>
       </c>
       <c r="C10">
-        <v>0.4417131830359722</v>
+        <v>1.240577877194141</v>
       </c>
       <c r="D10">
-        <v>0.009807277632454259</v>
+        <v>0.02590867234344074</v>
       </c>
       <c r="E10">
-        <v>0.05013572106776887</v>
+        <v>0.01699316224017716</v>
       </c>
       <c r="F10">
-        <v>4.883454828677458</v>
+        <v>4.357733417425834</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1393219986147578</v>
+        <v>0.05314022982236821</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4643832081064403</v>
+        <v>0.4608393657583036</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.698519053072573</v>
+        <v>1.361071778548464</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.211752386229477</v>
+        <v>8.24846600883177</v>
       </c>
       <c r="C11">
-        <v>0.4646919755899148</v>
+        <v>1.343634632130659</v>
       </c>
       <c r="D11">
-        <v>0.01042939837254409</v>
+        <v>0.02853039719950345</v>
       </c>
       <c r="E11">
-        <v>0.05009024535380668</v>
+        <v>0.01707751479792219</v>
       </c>
       <c r="F11">
-        <v>4.919634178634254</v>
+        <v>4.606622125580799</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1388977419359989</v>
+        <v>0.05276983168556626</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4696758015430191</v>
+        <v>0.4923449592615157</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.687932273078744</v>
+        <v>1.339112147415122</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.255742883157154</v>
+        <v>8.473458897251362</v>
       </c>
       <c r="C12">
-        <v>0.4734299227247902</v>
+        <v>1.383308961029172</v>
       </c>
       <c r="D12">
-        <v>0.01066512940528952</v>
+        <v>0.02955960791937429</v>
       </c>
       <c r="E12">
-        <v>0.0500736636344089</v>
+        <v>0.01711192908540415</v>
       </c>
       <c r="F12">
-        <v>4.933713011208795</v>
+        <v>4.703480921905566</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1387421577390313</v>
+        <v>0.05264206531209936</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4717152914156912</v>
+        <v>0.504487922591963</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.684046041560904</v>
+        <v>1.331399373493284</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.246249128182285</v>
+        <v>8.424822732071448</v>
       </c>
       <c r="C13">
-        <v>0.4715464185729843</v>
+        <v>1.374733580159841</v>
       </c>
       <c r="D13">
-        <v>0.01061435282271361</v>
+        <v>0.02933621467001757</v>
       </c>
       <c r="E13">
-        <v>0.05007720640071867</v>
+        <v>0.01710440084738707</v>
       </c>
       <c r="F13">
-        <v>4.930664005281756</v>
+        <v>4.682497979969497</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.138775440016996</v>
+        <v>0.05266900896478077</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4712744789961789</v>
+        <v>0.5018627151745818</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.68487753961621</v>
+        <v>1.333032444606175</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.215362677103144</v>
+        <v>8.266896217439353</v>
       </c>
       <c r="C14">
-        <v>0.4654101180308885</v>
+        <v>1.346884964228764</v>
       </c>
       <c r="D14">
-        <v>0.01044878874493804</v>
+        <v>0.02861430024875489</v>
       </c>
       <c r="E14">
-        <v>0.05008886836531257</v>
+        <v>0.01708029420381119</v>
       </c>
       <c r="F14">
-        <v>4.920784851331206</v>
+        <v>4.614536098424452</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1388848402836693</v>
+        <v>0.05275906363755212</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4698428834907844</v>
+        <v>0.493339512456302</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.687610086029792</v>
+        <v>1.338465102410368</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.196501210637052</v>
+        <v>8.170677023431608</v>
       </c>
       <c r="C15">
-        <v>0.4616562183532551</v>
+        <v>1.329914957699714</v>
       </c>
       <c r="D15">
-        <v>0.01034739727194989</v>
+        <v>0.02817705950767646</v>
       </c>
       <c r="E15">
-        <v>0.05009609483972444</v>
+        <v>0.01706586209409644</v>
       </c>
       <c r="F15">
-        <v>4.914782957005826</v>
+        <v>4.573259467770612</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1389525116279238</v>
+        <v>0.05281588390578662</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4689705903443411</v>
+        <v>0.4881474902771288</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.689299857872143</v>
+        <v>1.341873473746205</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089290721180021</v>
+        <v>7.626699524928654</v>
       </c>
       <c r="C16">
-        <v>0.4402165110675469</v>
+        <v>1.233927327939057</v>
       </c>
       <c r="D16">
-        <v>0.009766637349443386</v>
+        <v>0.02574205902484294</v>
       </c>
       <c r="E16">
-        <v>0.05013878247102599</v>
+        <v>0.01698797417168729</v>
       </c>
       <c r="F16">
-        <v>4.881143240022993</v>
+        <v>4.341811589947497</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1393504347729149</v>
+        <v>0.05316612762507589</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4640422581819337</v>
+        <v>0.4588083193503962</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.6992280606501</v>
+        <v>1.362587319563701</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.024300410456817</v>
+        <v>7.299108651813299</v>
       </c>
       <c r="C17">
-        <v>0.4271278696604099</v>
+        <v>1.176075428021136</v>
       </c>
       <c r="D17">
-        <v>0.009410546862596902</v>
+        <v>0.02430594658710561</v>
       </c>
       <c r="E17">
-        <v>0.05016610893299311</v>
+        <v>0.01694418639919232</v>
       </c>
       <c r="F17">
-        <v>4.861177609923999</v>
+        <v>4.20405850734511</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1396035856467783</v>
+        <v>0.05340214536497356</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4610816387911996</v>
+        <v>0.4411531673260072</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.705536529286348</v>
+        <v>1.376292616214585</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.987205250342242</v>
+        <v>7.112751676528376</v>
       </c>
       <c r="C18">
-        <v>0.4196228631921031</v>
+        <v>1.143146210741406</v>
       </c>
       <c r="D18">
-        <v>0.009205779138426351</v>
+        <v>0.02349914231445638</v>
       </c>
       <c r="E18">
-        <v>0.05018224525715109</v>
+        <v>0.01692035689499588</v>
       </c>
       <c r="F18">
-        <v>4.849939724228847</v>
+        <v>4.126266028530779</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1397525136695226</v>
+        <v>0.05354536280654898</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4594017949646059</v>
+        <v>0.4311148552568511</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.709244810053463</v>
+        <v>1.384521222102109</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.97469441148894</v>
+        <v>7.049992438345896</v>
       </c>
       <c r="C19">
-        <v>0.4170857630961109</v>
+        <v>1.132053262980776</v>
       </c>
       <c r="D19">
-        <v>0.009136454092214308</v>
+        <v>0.02322909471111956</v>
       </c>
       <c r="E19">
-        <v>0.05018778070869473</v>
+        <v>0.01691251170027347</v>
       </c>
       <c r="F19">
-        <v>4.846176907089671</v>
+        <v>4.100163671041486</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1398035088440253</v>
+        <v>0.05359510848899696</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4588369801840173</v>
+        <v>0.4277351835701779</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.710514056279024</v>
+        <v>1.387364772848429</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031189163502233</v>
+        <v>7.333763580079733</v>
       </c>
       <c r="C20">
-        <v>0.4285187674723829</v>
+        <v>1.182197350561239</v>
       </c>
       <c r="D20">
-        <v>0.009448448024095057</v>
+        <v>0.02445679235340492</v>
       </c>
       <c r="E20">
-        <v>0.05016315664026538</v>
+        <v>0.0169487049510838</v>
       </c>
       <c r="F20">
-        <v>4.863277524870512</v>
+        <v>4.21857107400669</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1395762934765941</v>
+        <v>0.05337624148067199</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4613944178771732</v>
+        <v>0.443020323793192</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.704856715986622</v>
+        <v>1.374797432249395</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.224422813265733</v>
+        <v>8.313174464339795</v>
       </c>
       <c r="C21">
-        <v>0.4672115044745624</v>
+        <v>1.355046201223388</v>
       </c>
       <c r="D21">
-        <v>0.01049741436138873</v>
+        <v>0.02882529877037143</v>
       </c>
       <c r="E21">
-        <v>0.05008542562964868</v>
+        <v>0.01708730456941099</v>
       </c>
       <c r="F21">
-        <v>4.923676304184539</v>
+        <v>4.634424045002305</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1388525691257989</v>
+        <v>0.05273226464043645</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4702624188602869</v>
+        <v>0.495836942494833</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.686804133453364</v>
+        <v>1.336852441715294</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.353277385893648</v>
+        <v>8.975829952468644</v>
       </c>
       <c r="C22">
-        <v>0.4927118644707775</v>
+        <v>1.471860479323482</v>
       </c>
       <c r="D22">
-        <v>0.01118386706631469</v>
+        <v>0.03189652342593519</v>
       </c>
       <c r="E22">
-        <v>0.05003834782904892</v>
+        <v>0.01719252114465097</v>
       </c>
       <c r="F22">
-        <v>4.965357868210276</v>
+        <v>4.921640736341004</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1384091392829987</v>
+        <v>0.05238479775094262</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4762639787543179</v>
+        <v>0.5316125370306111</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.675721575942546</v>
+        <v>1.315607244856466</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.284269452310582</v>
+        <v>8.619872136604499</v>
       </c>
       <c r="C23">
-        <v>0.4790821352789862</v>
+        <v>1.409121283925685</v>
       </c>
       <c r="D23">
-        <v>0.01081738915385699</v>
+        <v>0.03023514202520516</v>
       </c>
       <c r="E23">
-        <v>0.0500631336759344</v>
+        <v>0.01713488597983137</v>
       </c>
       <c r="F23">
-        <v>4.942908742006523</v>
+        <v>4.766796110828523</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.13864310173037</v>
+        <v>0.05256316216983592</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.473041963680032</v>
+        <v>0.5123917073410666</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.681570796080734</v>
+        <v>1.32659555458757</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.028073921757198</v>
+        <v>7.318089965194417</v>
       </c>
       <c r="C24">
-        <v>0.4278898808726694</v>
+        <v>1.179428607611953</v>
       </c>
       <c r="D24">
-        <v>0.009431313059273805</v>
+        <v>0.02438853678002317</v>
       </c>
       <c r="E24">
-        <v>0.05016449004497581</v>
+        <v>0.01694665795140887</v>
       </c>
       <c r="F24">
-        <v>4.862327404045857</v>
+        <v>4.212005598013292</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1395886217128464</v>
+        <v>0.05338792925221547</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4612529411394206</v>
+        <v>0.4421758361980324</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.705163805911752</v>
+        <v>1.375472322067523</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.762628969091793</v>
+        <v>5.991181913785169</v>
       </c>
       <c r="C25">
-        <v>0.3735556747814996</v>
+        <v>0.9445806589379799</v>
       </c>
       <c r="D25">
-        <v>0.007937684988892357</v>
+        <v>0.01879945149118356</v>
       </c>
       <c r="E25">
-        <v>0.05028983783157026</v>
+        <v>0.01679457731526968</v>
       </c>
       <c r="F25">
-        <v>4.78479449909409</v>
+        <v>3.667568923372272</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1407355528815408</v>
+        <v>0.05456023769762552</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4494164429837326</v>
+        <v>0.3708014387167111</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.733661364364735</v>
+        <v>1.441223570156438</v>
       </c>
       <c r="O25">
         <v>0</v>
